--- a/Files/Resultados/Notas Mestrado UFMG.xlsx
+++ b/Files/Resultados/Notas Mestrado UFMG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Misc\UFMG\drive-download-20240705T200601Z-001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\Pre_Projetos_de_Pesquisa\Files\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D77358-60B9-4E3C-A4BD-09CCA528933B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5E953F-8F4A-4AB2-AD97-BCD3055942F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FEE2B2E3-074B-4326-B4BF-EF8EC0864D21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FEE2B2E3-074B-4326-B4BF-EF8EC0864D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados UFMG" sheetId="1" r:id="rId1"/>
@@ -2874,7 +2874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2887,7 +2887,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2903,11 +2902,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20167,7 +20169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D7BD69-8C76-439B-A04B-22BDA08939E0}">
   <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -20244,7 +20246,7 @@
       <c r="G2" t="s">
         <v>656</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>100</v>
       </c>
       <c r="L2" t="s">
@@ -20270,7 +20272,7 @@
       <c r="G3" t="s">
         <v>657</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <v>100</v>
       </c>
       <c r="L3" t="s">
@@ -20296,7 +20298,7 @@
       <c r="G4" t="s">
         <v>658</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>99</v>
       </c>
       <c r="L4" t="s">
@@ -20322,7 +20324,7 @@
       <c r="G5" t="s">
         <v>659</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>96.33</v>
       </c>
       <c r="L5" t="s">
@@ -20348,7 +20350,7 @@
       <c r="G6" t="s">
         <v>660</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>95.67</v>
       </c>
       <c r="L6" t="s">
@@ -20374,7 +20376,7 @@
       <c r="G7" t="s">
         <v>661</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>95.33</v>
       </c>
       <c r="L7" t="s">
@@ -20400,7 +20402,7 @@
       <c r="G8" t="s">
         <v>662</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>95.13</v>
       </c>
       <c r="L8" t="s">
@@ -20426,7 +20428,7 @@
       <c r="G9" t="s">
         <v>663</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>95</v>
       </c>
       <c r="L9" t="s">
@@ -20452,7 +20454,7 @@
       <c r="G10" t="s">
         <v>664</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>95</v>
       </c>
       <c r="L10" t="s">
@@ -20478,7 +20480,7 @@
       <c r="G11" t="s">
         <v>665</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>94.67</v>
       </c>
       <c r="L11" t="s">
@@ -20504,7 +20506,7 @@
       <c r="G12" t="s">
         <v>666</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>94</v>
       </c>
       <c r="L12" t="s">
@@ -20530,7 +20532,7 @@
       <c r="G13" t="s">
         <v>667</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>93.67</v>
       </c>
       <c r="L13" t="s">
@@ -20556,7 +20558,7 @@
       <c r="G14" t="s">
         <v>668</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>93.33</v>
       </c>
       <c r="L14" t="s">
@@ -20582,7 +20584,7 @@
       <c r="G15" t="s">
         <v>669</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>92.67</v>
       </c>
       <c r="L15" t="s">
@@ -20608,7 +20610,7 @@
       <c r="G16" t="s">
         <v>670</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>92</v>
       </c>
       <c r="L16" t="s">
@@ -20634,7 +20636,7 @@
       <c r="G17" t="s">
         <v>671</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>91.67</v>
       </c>
       <c r="L17" t="s">
@@ -20660,7 +20662,7 @@
       <c r="G18" t="s">
         <v>672</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>91.33</v>
       </c>
       <c r="L18" t="s">
@@ -20686,7 +20688,7 @@
       <c r="G19" t="s">
         <v>673</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>91.33</v>
       </c>
       <c r="L19" t="s">
@@ -20712,7 +20714,7 @@
       <c r="G20" t="s">
         <v>674</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>91</v>
       </c>
       <c r="L20" t="s">
@@ -20738,7 +20740,7 @@
       <c r="G21" t="s">
         <v>675</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>90.67</v>
       </c>
       <c r="L21" t="s">
@@ -20764,7 +20766,7 @@
       <c r="G22" t="s">
         <v>676</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>90</v>
       </c>
       <c r="L22" t="s">
@@ -20790,7 +20792,7 @@
       <c r="G23" t="s">
         <v>677</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>89.33</v>
       </c>
       <c r="L23" t="s">
@@ -20816,7 +20818,7 @@
       <c r="G24" t="s">
         <v>678</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>88.33</v>
       </c>
       <c r="L24" t="s">
@@ -20842,7 +20844,7 @@
       <c r="G25" t="s">
         <v>679</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>87.67</v>
       </c>
       <c r="L25" t="s">
@@ -20868,7 +20870,7 @@
       <c r="G26" t="s">
         <v>680</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>87.67</v>
       </c>
       <c r="L26" t="s">
@@ -20894,7 +20896,7 @@
       <c r="G27" t="s">
         <v>681</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="22">
         <v>86.33</v>
       </c>
       <c r="L27" t="s">
@@ -20920,7 +20922,7 @@
       <c r="G28" t="s">
         <v>682</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="22">
         <v>85.33</v>
       </c>
       <c r="L28" t="s">
@@ -20946,7 +20948,7 @@
       <c r="G29" t="s">
         <v>683</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="22">
         <v>84.67</v>
       </c>
       <c r="L29" t="s">
@@ -20972,7 +20974,7 @@
       <c r="G30" t="s">
         <v>684</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="22">
         <v>84.67</v>
       </c>
       <c r="L30" t="s">
@@ -20998,7 +21000,7 @@
       <c r="G31" t="s">
         <v>685</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="22">
         <v>84.67</v>
       </c>
       <c r="L31" t="s">
@@ -21024,7 +21026,7 @@
       <c r="G32" t="s">
         <v>686</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="22">
         <v>84.67</v>
       </c>
       <c r="L32" t="s">
@@ -21050,7 +21052,7 @@
       <c r="G33" t="s">
         <v>687</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="22">
         <v>84</v>
       </c>
       <c r="L33" t="s">
@@ -21076,7 +21078,7 @@
       <c r="G34" t="s">
         <v>688</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="22">
         <v>83.67</v>
       </c>
       <c r="L34" t="s">
@@ -21102,7 +21104,7 @@
       <c r="G35" t="s">
         <v>689</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="22">
         <v>83.33</v>
       </c>
       <c r="L35" t="s">
@@ -21128,7 +21130,7 @@
       <c r="G36" t="s">
         <v>690</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="22">
         <v>83</v>
       </c>
       <c r="L36" t="s">
@@ -21154,7 +21156,7 @@
       <c r="G37" t="s">
         <v>691</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="22">
         <v>82</v>
       </c>
       <c r="L37" t="s">
@@ -21180,7 +21182,7 @@
       <c r="G38" t="s">
         <v>692</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="22">
         <v>81.67</v>
       </c>
       <c r="L38" t="s">
@@ -21206,7 +21208,7 @@
       <c r="G39" t="s">
         <v>693</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="22">
         <v>81.67</v>
       </c>
       <c r="L39" t="s">
@@ -21232,7 +21234,7 @@
       <c r="G40" t="s">
         <v>694</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <v>81.33</v>
       </c>
       <c r="L40" t="s">
@@ -21258,7 +21260,7 @@
       <c r="G41" t="s">
         <v>695</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="22">
         <v>81.33</v>
       </c>
       <c r="L41" t="s">
@@ -21284,7 +21286,7 @@
       <c r="G42" t="s">
         <v>696</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="22">
         <v>80.33</v>
       </c>
       <c r="L42" t="s">
@@ -21310,7 +21312,7 @@
       <c r="G43" t="s">
         <v>697</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="22">
         <v>80.33</v>
       </c>
       <c r="L43" t="s">
@@ -21336,7 +21338,7 @@
       <c r="G44" t="s">
         <v>698</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="22">
         <v>79.33</v>
       </c>
       <c r="L44" t="s">
@@ -21362,7 +21364,7 @@
       <c r="G45" t="s">
         <v>699</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="22">
         <v>79</v>
       </c>
       <c r="L45" t="s">
@@ -21388,7 +21390,7 @@
       <c r="G46" t="s">
         <v>700</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="22">
         <v>78.67</v>
       </c>
       <c r="L46" t="s">
@@ -21414,7 +21416,7 @@
       <c r="G47" t="s">
         <v>701</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="22">
         <v>78.67</v>
       </c>
       <c r="L47" t="s">
@@ -21440,7 +21442,7 @@
       <c r="G48" t="s">
         <v>702</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="22">
         <v>78.67</v>
       </c>
       <c r="L48" t="s">
@@ -21466,7 +21468,7 @@
       <c r="G49" t="s">
         <v>703</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="22">
         <v>78.33</v>
       </c>
       <c r="L49" t="s">
@@ -21492,7 +21494,7 @@
       <c r="G50" t="s">
         <v>704</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="22">
         <v>78.33</v>
       </c>
       <c r="L50" t="s">
@@ -21518,7 +21520,7 @@
       <c r="G51" t="s">
         <v>705</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="22">
         <v>78</v>
       </c>
       <c r="L51" t="s">
@@ -21544,7 +21546,7 @@
       <c r="G52" t="s">
         <v>706</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="22">
         <v>77.67</v>
       </c>
       <c r="L52" t="s">
@@ -21570,7 +21572,7 @@
       <c r="G53" t="s">
         <v>707</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="22">
         <v>77.67</v>
       </c>
       <c r="L53" t="s">
@@ -21596,7 +21598,7 @@
       <c r="G54" t="s">
         <v>708</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="22">
         <v>77.33</v>
       </c>
       <c r="L54" t="s">
@@ -21622,7 +21624,7 @@
       <c r="G55" t="s">
         <v>709</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="22">
         <v>76.67</v>
       </c>
       <c r="L55" t="s">
@@ -21648,7 +21650,7 @@
       <c r="G56" t="s">
         <v>710</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="22">
         <v>75.400000000000006</v>
       </c>
       <c r="L56" t="s">
@@ -21674,7 +21676,7 @@
       <c r="G57" t="s">
         <v>711</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="22">
         <v>75</v>
       </c>
       <c r="L57" t="s">
@@ -21700,7 +21702,7 @@
       <c r="G58" t="s">
         <v>712</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="22">
         <v>74.67</v>
       </c>
       <c r="L58" t="s">
@@ -21726,7 +21728,7 @@
       <c r="G59" t="s">
         <v>713</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="22">
         <v>73.67</v>
       </c>
       <c r="L59" t="s">
@@ -21752,7 +21754,7 @@
       <c r="G60" t="s">
         <v>714</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="22">
         <v>73</v>
       </c>
       <c r="L60" t="s">
@@ -21778,7 +21780,7 @@
       <c r="G61" t="s">
         <v>715</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="22">
         <v>73</v>
       </c>
       <c r="L61" t="s">
@@ -21804,7 +21806,7 @@
       <c r="G62" t="s">
         <v>716</v>
       </c>
-      <c r="H62" s="23">
+      <c r="H62" s="22">
         <v>72.67</v>
       </c>
       <c r="L62" t="s">
@@ -21830,7 +21832,7 @@
       <c r="G63" t="s">
         <v>717</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="22">
         <v>72.67</v>
       </c>
       <c r="L63" t="s">
@@ -21856,7 +21858,7 @@
       <c r="G64" t="s">
         <v>718</v>
       </c>
-      <c r="H64" s="23">
+      <c r="H64" s="22">
         <v>72.33</v>
       </c>
       <c r="L64" t="s">
@@ -21882,7 +21884,7 @@
       <c r="G65" t="s">
         <v>719</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="22">
         <v>72</v>
       </c>
       <c r="L65" t="s">
@@ -21908,7 +21910,7 @@
       <c r="G66" t="s">
         <v>720</v>
       </c>
-      <c r="H66" s="23">
+      <c r="H66" s="22">
         <v>71.67</v>
       </c>
       <c r="L66" t="s">
@@ -21934,7 +21936,7 @@
       <c r="G67" t="s">
         <v>721</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H67" s="22">
         <v>71.33</v>
       </c>
       <c r="L67" t="s">
@@ -21960,7 +21962,7 @@
       <c r="G68" t="s">
         <v>722</v>
       </c>
-      <c r="H68" s="23">
+      <c r="H68" s="22">
         <v>71.33</v>
       </c>
       <c r="L68" t="s">
@@ -21986,7 +21988,7 @@
       <c r="G69" t="s">
         <v>723</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="22">
         <v>70.67</v>
       </c>
       <c r="L69" t="s">
@@ -22012,7 +22014,7 @@
       <c r="G70" t="s">
         <v>724</v>
       </c>
-      <c r="H70" s="23">
+      <c r="H70" s="22">
         <v>70.67</v>
       </c>
       <c r="L70" t="s">
@@ -22038,7 +22040,7 @@
       <c r="G71" t="s">
         <v>725</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H71" s="22">
         <v>70.33</v>
       </c>
       <c r="L71" t="s">
@@ -22064,7 +22066,7 @@
       <c r="G72" t="s">
         <v>726</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H72" s="22">
         <v>70.33</v>
       </c>
       <c r="L72" t="s">
@@ -22090,7 +22092,7 @@
       <c r="G73" t="s">
         <v>727</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H73" s="22">
         <v>70.33</v>
       </c>
       <c r="L73" t="s">
@@ -22116,7 +22118,7 @@
       <c r="G74" t="s">
         <v>728</v>
       </c>
-      <c r="H74" s="23">
+      <c r="H74" s="22">
         <v>69.33</v>
       </c>
       <c r="L74" t="s">
@@ -22142,7 +22144,7 @@
       <c r="G75" t="s">
         <v>729</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H75" s="22">
         <v>68.67</v>
       </c>
       <c r="L75" t="s">
@@ -22168,7 +22170,7 @@
       <c r="G76" t="s">
         <v>730</v>
       </c>
-      <c r="H76" s="23">
+      <c r="H76" s="22">
         <v>68.33</v>
       </c>
       <c r="L76" t="s">
@@ -22194,7 +22196,7 @@
       <c r="G77" t="s">
         <v>731</v>
       </c>
-      <c r="H77" s="23">
+      <c r="H77" s="22">
         <v>68.33</v>
       </c>
       <c r="L77" t="s">
@@ -22220,7 +22222,7 @@
       <c r="G78" t="s">
         <v>732</v>
       </c>
-      <c r="H78" s="23">
+      <c r="H78" s="22">
         <v>68</v>
       </c>
       <c r="L78" t="s">
@@ -22246,7 +22248,7 @@
       <c r="G79" t="s">
         <v>733</v>
       </c>
-      <c r="H79" s="23">
+      <c r="H79" s="22">
         <v>67.67</v>
       </c>
       <c r="L79" t="s">
@@ -22272,7 +22274,7 @@
       <c r="G80" t="s">
         <v>734</v>
       </c>
-      <c r="H80" s="23">
+      <c r="H80" s="22">
         <v>67.67</v>
       </c>
       <c r="L80" t="s">
@@ -22298,7 +22300,7 @@
       <c r="G81" t="s">
         <v>735</v>
       </c>
-      <c r="H81" s="23">
+      <c r="H81" s="22">
         <v>66.67</v>
       </c>
       <c r="L81" t="s">
@@ -22324,7 +22326,7 @@
       <c r="G82" t="s">
         <v>736</v>
       </c>
-      <c r="H82" s="23">
+      <c r="H82" s="22">
         <v>66</v>
       </c>
       <c r="L82" t="s">
@@ -22350,7 +22352,7 @@
       <c r="G83" t="s">
         <v>737</v>
       </c>
-      <c r="H83" s="23">
+      <c r="H83" s="22">
         <v>65.67</v>
       </c>
       <c r="L83" t="s">
@@ -22376,7 +22378,7 @@
       <c r="G84" t="s">
         <v>738</v>
       </c>
-      <c r="H84" s="23">
+      <c r="H84" s="22">
         <v>65.67</v>
       </c>
       <c r="L84" t="s">
@@ -22402,7 +22404,7 @@
       <c r="G85" t="s">
         <v>739</v>
       </c>
-      <c r="H85" s="23">
+      <c r="H85" s="22">
         <v>65</v>
       </c>
       <c r="L85" t="s">
@@ -22428,7 +22430,7 @@
       <c r="G86" t="s">
         <v>740</v>
       </c>
-      <c r="H86" s="23">
+      <c r="H86" s="22">
         <v>64.599999999999994</v>
       </c>
       <c r="L86" t="s">
@@ -22454,7 +22456,7 @@
       <c r="G87" t="s">
         <v>741</v>
       </c>
-      <c r="H87" s="23">
+      <c r="H87" s="22">
         <v>64.33</v>
       </c>
       <c r="L87" t="s">
@@ -22480,7 +22482,7 @@
       <c r="G88" t="s">
         <v>742</v>
       </c>
-      <c r="H88" s="23">
+      <c r="H88" s="22">
         <v>64</v>
       </c>
       <c r="L88" t="s">
@@ -22506,7 +22508,7 @@
       <c r="G89" t="s">
         <v>743</v>
       </c>
-      <c r="H89" s="23">
+      <c r="H89" s="22">
         <v>61.67</v>
       </c>
       <c r="L89" t="s">
@@ -22532,7 +22534,7 @@
       <c r="G90" t="s">
         <v>744</v>
       </c>
-      <c r="H90" s="23">
+      <c r="H90" s="22">
         <v>61</v>
       </c>
       <c r="L90" t="s">
@@ -22558,7 +22560,7 @@
       <c r="G91" t="s">
         <v>745</v>
       </c>
-      <c r="H91" s="23">
+      <c r="H91" s="22">
         <v>61</v>
       </c>
       <c r="L91" t="s">
@@ -22584,7 +22586,7 @@
       <c r="G92" t="s">
         <v>746</v>
       </c>
-      <c r="H92" s="23">
+      <c r="H92" s="22">
         <v>60.67</v>
       </c>
       <c r="L92" t="s">
@@ -22610,7 +22612,7 @@
       <c r="G93" t="s">
         <v>747</v>
       </c>
-      <c r="H93" s="23">
+      <c r="H93" s="22">
         <v>60</v>
       </c>
       <c r="L93" t="s">
@@ -22636,7 +22638,7 @@
       <c r="G94" t="s">
         <v>748</v>
       </c>
-      <c r="H94" s="23">
+      <c r="H94" s="22">
         <v>60</v>
       </c>
       <c r="L94" t="s">
@@ -22662,7 +22664,7 @@
       <c r="G95" t="s">
         <v>749</v>
       </c>
-      <c r="H95" s="23">
+      <c r="H95" s="22">
         <v>56.33</v>
       </c>
       <c r="L95" t="s">
@@ -22688,7 +22690,7 @@
       <c r="G96" t="s">
         <v>750</v>
       </c>
-      <c r="H96" s="23">
+      <c r="H96" s="22">
         <v>55.33</v>
       </c>
       <c r="L96" t="s">
@@ -22714,7 +22716,7 @@
       <c r="G97" t="s">
         <v>751</v>
       </c>
-      <c r="H97" s="23">
+      <c r="H97" s="22">
         <v>55</v>
       </c>
       <c r="L97" t="s">
@@ -22740,7 +22742,7 @@
       <c r="G98" t="s">
         <v>752</v>
       </c>
-      <c r="H98" s="23">
+      <c r="H98" s="22">
         <v>51.67</v>
       </c>
       <c r="L98" t="s">
@@ -22766,7 +22768,7 @@
       <c r="G99" t="s">
         <v>753</v>
       </c>
-      <c r="H99" s="23">
+      <c r="H99" s="22">
         <v>51.07</v>
       </c>
       <c r="L99" t="s">
@@ -22792,7 +22794,7 @@
       <c r="G100" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="23">
+      <c r="H100" s="22">
         <v>51</v>
       </c>
       <c r="L100" t="s">
@@ -22818,7 +22820,7 @@
       <c r="G101" t="s">
         <v>755</v>
       </c>
-      <c r="H101" s="23">
+      <c r="H101" s="22">
         <v>51</v>
       </c>
       <c r="L101" t="s">
@@ -22844,7 +22846,7 @@
       <c r="G102" t="s">
         <v>756</v>
       </c>
-      <c r="H102" s="23">
+      <c r="H102" s="22">
         <v>50.33</v>
       </c>
       <c r="L102" t="s">
@@ -22870,7 +22872,7 @@
       <c r="G103" t="s">
         <v>757</v>
       </c>
-      <c r="H103" s="23">
+      <c r="H103" s="22">
         <v>49.33</v>
       </c>
       <c r="L103" t="s">
@@ -22896,7 +22898,7 @@
       <c r="G104" t="s">
         <v>758</v>
       </c>
-      <c r="H104" s="23">
+      <c r="H104" s="22">
         <v>49.33</v>
       </c>
       <c r="L104" t="s">
@@ -22922,7 +22924,7 @@
       <c r="G105" t="s">
         <v>759</v>
       </c>
-      <c r="H105" s="23">
+      <c r="H105" s="22">
         <v>49.33</v>
       </c>
       <c r="L105" t="s">
@@ -22948,7 +22950,7 @@
       <c r="G106" t="s">
         <v>760</v>
       </c>
-      <c r="H106" s="23">
+      <c r="H106" s="22">
         <v>49</v>
       </c>
       <c r="L106" t="s">
@@ -22974,7 +22976,7 @@
       <c r="G107" t="s">
         <v>761</v>
       </c>
-      <c r="H107" s="23">
+      <c r="H107" s="22">
         <v>49</v>
       </c>
       <c r="L107" t="s">
@@ -23000,7 +23002,7 @@
       <c r="G108" t="s">
         <v>762</v>
       </c>
-      <c r="H108" s="23">
+      <c r="H108" s="22">
         <v>48</v>
       </c>
       <c r="L108" t="s">
@@ -23026,7 +23028,7 @@
       <c r="G109" t="s">
         <v>763</v>
       </c>
-      <c r="H109" s="23">
+      <c r="H109" s="22">
         <v>48</v>
       </c>
       <c r="L109" t="s">
@@ -23052,7 +23054,7 @@
       <c r="G110" t="s">
         <v>764</v>
       </c>
-      <c r="H110" s="23">
+      <c r="H110" s="22">
         <v>48</v>
       </c>
       <c r="L110" t="s">
@@ -23078,7 +23080,7 @@
       <c r="G111" t="s">
         <v>765</v>
       </c>
-      <c r="H111" s="23">
+      <c r="H111" s="22">
         <v>47.33</v>
       </c>
       <c r="L111" t="s">
@@ -23104,7 +23106,7 @@
       <c r="G112" t="s">
         <v>766</v>
       </c>
-      <c r="H112" s="23">
+      <c r="H112" s="22">
         <v>45.67</v>
       </c>
       <c r="L112" t="s">
@@ -23130,7 +23132,7 @@
       <c r="G113" t="s">
         <v>767</v>
       </c>
-      <c r="H113" s="23">
+      <c r="H113" s="22">
         <v>44.67</v>
       </c>
       <c r="L113" t="s">
@@ -23156,7 +23158,7 @@
       <c r="G114" t="s">
         <v>768</v>
       </c>
-      <c r="H114" s="23">
+      <c r="H114" s="22">
         <v>44.33</v>
       </c>
       <c r="L114" t="s">
@@ -23182,7 +23184,7 @@
       <c r="G115" t="s">
         <v>769</v>
       </c>
-      <c r="H115" s="23">
+      <c r="H115" s="22">
         <v>43.67</v>
       </c>
       <c r="L115" t="s">
@@ -23208,7 +23210,7 @@
       <c r="G116" t="s">
         <v>770</v>
       </c>
-      <c r="H116" s="23">
+      <c r="H116" s="22">
         <v>43.53</v>
       </c>
       <c r="L116" t="s">
@@ -23234,7 +23236,7 @@
       <c r="G117" t="s">
         <v>771</v>
       </c>
-      <c r="H117" s="23">
+      <c r="H117" s="22">
         <v>43</v>
       </c>
       <c r="L117" t="s">
@@ -23260,7 +23262,7 @@
       <c r="G118" t="s">
         <v>772</v>
       </c>
-      <c r="H118" s="23">
+      <c r="H118" s="22">
         <v>40.33</v>
       </c>
       <c r="L118" t="s">
@@ -23286,7 +23288,7 @@
       <c r="G119" t="s">
         <v>773</v>
       </c>
-      <c r="H119" s="23">
+      <c r="H119" s="22">
         <v>38</v>
       </c>
       <c r="L119" t="s">
@@ -23312,7 +23314,7 @@
       <c r="G120" t="s">
         <v>774</v>
       </c>
-      <c r="H120" s="23">
+      <c r="H120" s="22">
         <v>37</v>
       </c>
       <c r="L120" t="s">
@@ -23338,7 +23340,7 @@
       <c r="G121" t="s">
         <v>775</v>
       </c>
-      <c r="H121" s="23">
+      <c r="H121" s="22">
         <v>35.33</v>
       </c>
       <c r="L121" t="s">
@@ -23364,7 +23366,7 @@
       <c r="G122" t="s">
         <v>776</v>
       </c>
-      <c r="H122" s="23">
+      <c r="H122" s="22">
         <v>32.67</v>
       </c>
       <c r="L122" t="s">
@@ -23390,7 +23392,7 @@
       <c r="G123" t="s">
         <v>777</v>
       </c>
-      <c r="H123" s="23">
+      <c r="H123" s="22">
         <v>31.33</v>
       </c>
       <c r="L123" t="s">
@@ -23416,7 +23418,7 @@
       <c r="G124" t="s">
         <v>778</v>
       </c>
-      <c r="H124" s="23">
+      <c r="H124" s="22">
         <v>31.33</v>
       </c>
       <c r="L124" t="s">
@@ -23442,7 +23444,7 @@
       <c r="G125" t="s">
         <v>779</v>
       </c>
-      <c r="H125" s="23">
+      <c r="H125" s="22">
         <v>29</v>
       </c>
       <c r="L125" t="s">
@@ -23468,7 +23470,7 @@
       <c r="G126" t="s">
         <v>780</v>
       </c>
-      <c r="H126" s="23">
+      <c r="H126" s="22">
         <v>27.67</v>
       </c>
       <c r="L126" t="s">
@@ -23494,7 +23496,7 @@
       <c r="G127" t="s">
         <v>781</v>
       </c>
-      <c r="H127" s="23">
+      <c r="H127" s="22">
         <v>25.67</v>
       </c>
       <c r="L127" t="s">
@@ -23520,7 +23522,7 @@
       <c r="G128" t="s">
         <v>782</v>
       </c>
-      <c r="H128" s="23">
+      <c r="H128" s="22">
         <v>24.33</v>
       </c>
       <c r="L128" t="s">
@@ -23546,7 +23548,7 @@
       <c r="G129" t="s">
         <v>783</v>
       </c>
-      <c r="H129" s="23">
+      <c r="H129" s="22">
         <v>21.33</v>
       </c>
       <c r="L129" t="s">
@@ -23572,7 +23574,7 @@
       <c r="G130" t="s">
         <v>784</v>
       </c>
-      <c r="H130" s="23">
+      <c r="H130" s="22">
         <v>18.329999999999998</v>
       </c>
       <c r="L130" t="s">
@@ -23598,7 +23600,7 @@
       <c r="G131" t="s">
         <v>785</v>
       </c>
-      <c r="H131" s="23">
+      <c r="H131" s="22">
         <v>17.670000000000002</v>
       </c>
       <c r="L131" t="s">
@@ -23624,7 +23626,7 @@
       <c r="G132" t="s">
         <v>786</v>
       </c>
-      <c r="H132" s="23">
+      <c r="H132" s="22">
         <v>10</v>
       </c>
       <c r="L132" t="s">
@@ -23650,7 +23652,7 @@
       <c r="G133" t="s">
         <v>787</v>
       </c>
-      <c r="H133" s="23">
+      <c r="H133" s="22">
         <v>3.33</v>
       </c>
       <c r="L133" t="s">
@@ -23676,7 +23678,7 @@
       <c r="G134" t="s">
         <v>788</v>
       </c>
-      <c r="H134" s="23">
+      <c r="H134" s="22">
         <v>0.67</v>
       </c>
       <c r="L134" t="s">
@@ -23702,7 +23704,7 @@
       <c r="G135" t="s">
         <v>789</v>
       </c>
-      <c r="H135" s="23">
+      <c r="H135" s="22">
         <v>0.33</v>
       </c>
       <c r="L135" t="s">
@@ -23728,7 +23730,7 @@
       <c r="G136" t="s">
         <v>790</v>
       </c>
-      <c r="H136" s="23">
+      <c r="H136" s="22">
         <v>0</v>
       </c>
       <c r="L136" t="s">
@@ -23754,7 +23756,7 @@
       <c r="G137" t="s">
         <v>791</v>
       </c>
-      <c r="H137" s="23">
+      <c r="H137" s="22">
         <v>0</v>
       </c>
       <c r="L137" t="s">
@@ -23780,7 +23782,7 @@
       <c r="G138" t="s">
         <v>792</v>
       </c>
-      <c r="H138" s="23">
+      <c r="H138" s="22">
         <v>0</v>
       </c>
       <c r="L138" t="s">
@@ -23806,7 +23808,7 @@
       <c r="G139" t="s">
         <v>793</v>
       </c>
-      <c r="H139" s="23">
+      <c r="H139" s="22">
         <v>0</v>
       </c>
       <c r="L139" t="s">
@@ -23832,7 +23834,7 @@
       <c r="G140" t="s">
         <v>794</v>
       </c>
-      <c r="H140" s="23">
+      <c r="H140" s="22">
         <v>0</v>
       </c>
       <c r="L140" t="s">
@@ -23858,7 +23860,7 @@
       <c r="G141" t="s">
         <v>795</v>
       </c>
-      <c r="H141" s="23">
+      <c r="H141" s="22">
         <v>0</v>
       </c>
       <c r="L141" t="s">
@@ -23884,7 +23886,7 @@
       <c r="G142" t="s">
         <v>796</v>
       </c>
-      <c r="H142" s="23">
+      <c r="H142" s="22">
         <v>0</v>
       </c>
       <c r="L142" t="s">
@@ -23910,7 +23912,7 @@
       <c r="G143" t="s">
         <v>797</v>
       </c>
-      <c r="H143" s="23">
+      <c r="H143" s="22">
         <v>0</v>
       </c>
       <c r="L143" t="s">
@@ -23936,7 +23938,7 @@
       <c r="G144" t="s">
         <v>798</v>
       </c>
-      <c r="H144" s="23">
+      <c r="H144" s="22">
         <v>0</v>
       </c>
       <c r="L144" t="s">
@@ -23962,7 +23964,7 @@
       <c r="G145" t="s">
         <v>799</v>
       </c>
-      <c r="H145" s="23">
+      <c r="H145" s="22">
         <v>0</v>
       </c>
       <c r="L145" t="s">
@@ -23988,7 +23990,7 @@
       <c r="G146" t="s">
         <v>800</v>
       </c>
-      <c r="H146" s="23">
+      <c r="H146" s="22">
         <v>0</v>
       </c>
       <c r="L146" t="s">
@@ -24014,7 +24016,7 @@
       <c r="G147" t="s">
         <v>801</v>
       </c>
-      <c r="H147" s="23">
+      <c r="H147" s="22">
         <v>0</v>
       </c>
       <c r="L147" t="s">
@@ -24040,7 +24042,7 @@
       <c r="G148" t="s">
         <v>802</v>
       </c>
-      <c r="H148" s="23">
+      <c r="H148" s="22">
         <v>0</v>
       </c>
       <c r="L148" t="s">
@@ -24066,7 +24068,7 @@
       <c r="G149" t="s">
         <v>803</v>
       </c>
-      <c r="H149" s="23">
+      <c r="H149" s="22">
         <v>0</v>
       </c>
       <c r="L149" t="s">
@@ -24092,7 +24094,7 @@
       <c r="G150" t="s">
         <v>804</v>
       </c>
-      <c r="H150" s="23">
+      <c r="H150" s="22">
         <v>0</v>
       </c>
       <c r="L150" t="s">
@@ -24122,8 +24124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2747A6-6F29-4420-B83B-596E88E9CB5E}">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -24179,22 +24181,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="25">
-        <v>2024</v>
-      </c>
-      <c r="C2" s="26">
+      <c r="B2" s="24">
+        <v>2024</v>
+      </c>
+      <c r="C2" s="25">
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>519</v>
       </c>
       <c r="G2" s="6">
@@ -24214,34 +24216,34 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C3" s="29">
+      <c r="B3" s="31">
+        <v>2024</v>
+      </c>
+      <c r="C3" s="27">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E3" s="16">
-        <v>2</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="33">
+        <v>2</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="34">
         <v>40</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="34">
         <v>10.84</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="34">
         <v>29.9</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="34">
         <v>80.739999999999995</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -24249,22 +24251,22 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C4" s="29">
+      <c r="B4">
+        <v>2024</v>
+      </c>
+      <c r="C4" s="27">
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>521</v>
       </c>
       <c r="G4" s="1">
@@ -24284,3158 +24286,3162 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C5" s="29">
+      <c r="B5">
+        <v>2024</v>
+      </c>
+      <c r="C5" s="27">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E5" s="16">
-        <v>4</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>522</v>
+      <c r="E5" s="15">
+        <v>23</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>541</v>
       </c>
       <c r="G5" s="1">
-        <v>35.729999999999997</v>
+        <v>38.53</v>
       </c>
       <c r="H5" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1">
-        <v>26</v>
+        <v>5.75</v>
       </c>
       <c r="J5" s="1">
-        <v>72.73</v>
+        <v>56.28</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="27">
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E6" s="16">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>523</v>
+      <c r="E6" s="15">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>524</v>
       </c>
       <c r="G6" s="1">
-        <v>38</v>
+        <v>38.270000000000003</v>
       </c>
       <c r="H6" s="1">
-        <v>11.88</v>
+        <v>15.62</v>
       </c>
       <c r="I6" s="1">
-        <v>20.75</v>
+        <v>16.63</v>
       </c>
       <c r="J6" s="1">
-        <v>70.63</v>
+        <v>70.510000000000005</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="29">
+      <c r="B7">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="27">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E7" s="16">
-        <v>6</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>524</v>
+      <c r="E7" s="17">
+        <v>38</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="G7" s="1">
-        <v>38.270000000000003</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="H7" s="1">
-        <v>15.62</v>
+        <v>9.48</v>
       </c>
       <c r="I7" s="1">
-        <v>16.63</v>
+        <v>4.75</v>
       </c>
       <c r="J7" s="1">
-        <v>70.510000000000005</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>87</v>
+        <v>52.36</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="B8">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="27">
         <v>2</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E8" s="16">
-        <v>7</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>525</v>
+      <c r="E8" s="15">
+        <v>21</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>539</v>
       </c>
       <c r="G8" s="1">
-        <v>32.67</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="H8" s="1">
-        <v>12.45</v>
+        <v>14.63</v>
       </c>
       <c r="I8" s="1">
-        <v>23.25</v>
+        <v>4.75</v>
       </c>
       <c r="J8" s="1">
-        <v>68.37</v>
+        <v>57.43</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C9" s="29">
+      <c r="B9">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="27">
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E9" s="16">
-        <v>8</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>526</v>
+      <c r="E9" s="15">
+        <v>5</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>523</v>
       </c>
       <c r="G9" s="1">
-        <v>31.07</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1">
-        <v>10.25</v>
+        <v>11.88</v>
       </c>
       <c r="I9" s="1">
-        <v>26.65</v>
+        <v>20.75</v>
       </c>
       <c r="J9" s="1">
-        <v>67.97</v>
+        <v>70.63</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="29">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="E10" s="16">
-        <v>9</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>527</v>
+      <c r="B10">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="27">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E10" s="19">
+        <v>6</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>597</v>
       </c>
       <c r="G10" s="1">
-        <v>37.6</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1">
-        <v>11.38</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="I10" s="1">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>67.73</v>
+        <v>47.53</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="29">
+      <c r="B11" s="31">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="27">
         <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E11" s="16">
-        <v>10</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>528</v>
+      <c r="E11" s="17">
+        <v>25</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>543</v>
       </c>
       <c r="G11" s="1">
-        <v>36.4</v>
+        <v>37.869999999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>16.239999999999998</v>
+        <v>11</v>
       </c>
       <c r="I11" s="1">
-        <v>14.1</v>
+        <v>6.5</v>
       </c>
       <c r="J11" s="1">
-        <v>66.739999999999995</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>87</v>
+        <v>55.37</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C12" s="29">
+      <c r="B12" s="31">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="27">
         <v>2</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E12" s="16">
-        <v>11</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="G12" s="1">
-        <v>33.869999999999997</v>
-      </c>
-      <c r="H12" s="1">
-        <v>11.29</v>
-      </c>
-      <c r="I12" s="1">
-        <v>21.2</v>
-      </c>
-      <c r="J12" s="1">
-        <v>66.349999999999994</v>
+      <c r="E12" s="33">
+        <v>9</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="G12" s="34">
+        <v>37.6</v>
+      </c>
+      <c r="H12" s="34">
+        <v>11.38</v>
+      </c>
+      <c r="I12" s="34">
+        <v>18.75</v>
+      </c>
+      <c r="J12" s="34">
+        <v>67.73</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C13" s="29">
+      <c r="B13">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="27">
         <v>2</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E13" s="16">
-        <v>12</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>530</v>
+      <c r="E13" s="17">
+        <v>26</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>544</v>
       </c>
       <c r="G13" s="1">
-        <v>36.67</v>
+        <v>37.47</v>
       </c>
       <c r="H13" s="1">
-        <v>15.63</v>
+        <v>10.25</v>
       </c>
       <c r="I13" s="1">
-        <v>12.4</v>
+        <v>7.25</v>
       </c>
       <c r="J13" s="1">
-        <v>64.69</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>87</v>
+        <v>54.97</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C14" s="29">
+      <c r="B14">
+        <v>2024</v>
+      </c>
+      <c r="C14" s="27">
         <v>2</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E14" s="16">
-        <v>13</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>531</v>
+      <c r="E14" s="15">
+        <v>17</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>535</v>
       </c>
       <c r="G14" s="1">
-        <v>36.53</v>
+        <v>37.33</v>
       </c>
       <c r="H14" s="1">
-        <v>13.4</v>
+        <v>11.63</v>
       </c>
       <c r="I14" s="1">
-        <v>13</v>
+        <v>10.85</v>
       </c>
       <c r="J14" s="1">
-        <v>62.93</v>
+        <v>59.81</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C15" s="29">
-        <v>2</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="E15" s="16">
-        <v>14</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>532</v>
+      <c r="B15" s="31">
+        <v>2024</v>
+      </c>
+      <c r="C15" s="27">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>593</v>
       </c>
       <c r="G15" s="1">
-        <v>36.53</v>
+        <v>37.07</v>
       </c>
       <c r="H15" s="1">
-        <v>14.49</v>
+        <v>11.83</v>
       </c>
       <c r="I15" s="1">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="J15" s="1">
-        <v>61.02</v>
+        <v>59.65</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C16" s="29">
+      <c r="B16">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="27">
         <v>2</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E16" s="16">
-        <v>15</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>533</v>
+      <c r="E16" s="17">
+        <v>37</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>554</v>
       </c>
       <c r="G16" s="1">
-        <v>28.93</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="H16" s="1">
-        <v>15.75</v>
+        <v>11.13</v>
       </c>
       <c r="I16" s="1">
-        <v>16.149999999999999</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J16" s="1">
-        <v>60.83</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>87</v>
+        <v>52.53</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C17" s="29">
+      <c r="B17">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="27">
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E17" s="16">
-        <v>16</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>534</v>
+      <c r="E17" s="15">
+        <v>12</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>530</v>
       </c>
       <c r="G17" s="1">
-        <v>32.67</v>
+        <v>36.67</v>
       </c>
       <c r="H17" s="1">
-        <v>11.88</v>
+        <v>15.63</v>
       </c>
       <c r="I17" s="1">
-        <v>15.75</v>
+        <v>12.4</v>
       </c>
       <c r="J17" s="1">
-        <v>60.29</v>
+        <v>64.69</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C18" s="29">
+      <c r="B18">
+        <v>2024</v>
+      </c>
+      <c r="C18" s="27">
         <v>2</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E18" s="16">
-        <v>17</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>535</v>
+      <c r="E18" s="15">
+        <v>13</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>531</v>
       </c>
       <c r="G18" s="1">
-        <v>37.33</v>
+        <v>36.53</v>
       </c>
       <c r="H18" s="1">
-        <v>11.63</v>
+        <v>13.4</v>
       </c>
       <c r="I18" s="1">
-        <v>10.85</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1">
-        <v>59.81</v>
+        <v>62.93</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C19" s="29">
+      <c r="B19">
+        <v>2024</v>
+      </c>
+      <c r="C19" s="27">
         <v>2</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E19" s="16">
-        <v>18</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>536</v>
+      <c r="E19" s="15">
+        <v>14</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>532</v>
       </c>
       <c r="G19" s="1">
-        <v>35.07</v>
+        <v>36.53</v>
       </c>
       <c r="H19" s="1">
-        <v>11.14</v>
+        <v>14.49</v>
       </c>
       <c r="I19" s="1">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1">
-        <v>57.95</v>
+        <v>61.02</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C20" s="29">
+      <c r="B20">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="27">
         <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E20" s="21">
-        <v>19</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>537</v>
+      <c r="E20" s="15">
+        <v>10</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="G20" s="1">
-        <v>30</v>
+        <v>36.4</v>
       </c>
       <c r="H20" s="1">
-        <v>13.13</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="J20" s="1">
-        <v>57.53</v>
-      </c>
-      <c r="K20" s="22" t="s">
+        <v>66.739999999999995</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C21" s="29">
+      <c r="B21">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="27">
         <v>2</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E21" s="16">
-        <v>20</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>538</v>
+      <c r="E21" s="17">
+        <v>27</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>545</v>
       </c>
       <c r="G21" s="1">
-        <v>31.47</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="H21" s="1">
-        <v>11.41</v>
+        <v>9.73</v>
       </c>
       <c r="I21" s="1">
-        <v>14.58</v>
+        <v>8.75</v>
       </c>
       <c r="J21" s="1">
-        <v>57.45</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>87</v>
+        <v>54.75</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C22" s="29">
+      <c r="B22">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="27">
         <v>2</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E22" s="16">
-        <v>21</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>539</v>
+      <c r="E22" s="17">
+        <v>54</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="G22" s="1">
-        <v>38.049999999999997</v>
+        <v>36</v>
       </c>
       <c r="H22" s="1">
-        <v>14.63</v>
+        <v>9.26</v>
       </c>
       <c r="I22" s="1">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="J22" s="1">
-        <v>57.43</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>87</v>
+        <v>48.01</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C23" s="29">
+      <c r="B23">
+        <v>2024</v>
+      </c>
+      <c r="C23" s="27">
         <v>2</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E23" s="16">
-        <v>22</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>540</v>
+      <c r="E23" s="15">
+        <v>4</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>522</v>
       </c>
       <c r="G23" s="1">
-        <v>33.47</v>
+        <v>35.729999999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>10.88</v>
+        <v>11</v>
       </c>
       <c r="I23" s="1">
-        <v>12.25</v>
+        <v>26</v>
       </c>
       <c r="J23" s="1">
-        <v>56.59</v>
+        <v>72.73</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C24" s="29">
+      <c r="B24">
+        <v>2024</v>
+      </c>
+      <c r="C24" s="27">
         <v>2</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E24" s="16">
-        <v>23</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>541</v>
+      <c r="E24" s="17">
+        <v>48</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>564</v>
       </c>
       <c r="G24" s="1">
-        <v>38.53</v>
+        <v>35.33</v>
       </c>
       <c r="H24" s="1">
-        <v>12</v>
+        <v>10.65</v>
       </c>
       <c r="I24" s="1">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="J24" s="1">
-        <v>56.28</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>87</v>
+        <v>48.74</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C25" s="29">
+      <c r="B25">
+        <v>2024</v>
+      </c>
+      <c r="C25" s="27">
         <v>2</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E25" s="16">
-        <v>24</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>542</v>
+      <c r="E25" s="15">
+        <v>18</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>536</v>
       </c>
       <c r="G25" s="1">
         <v>35.07</v>
       </c>
       <c r="H25" s="1">
+        <v>11.14</v>
+      </c>
+      <c r="I25" s="1">
         <v>11.75</v>
       </c>
-      <c r="I25" s="1">
-        <v>8.9</v>
-      </c>
       <c r="J25" s="1">
-        <v>55.72</v>
+        <v>57.95</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C26" s="29">
+      <c r="B26">
+        <v>2024</v>
+      </c>
+      <c r="C26" s="27">
         <v>2</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E26" s="18">
-        <v>25</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>543</v>
+      <c r="E26" s="15">
+        <v>24</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>542</v>
       </c>
       <c r="G26" s="1">
-        <v>37.869999999999997</v>
+        <v>35.07</v>
       </c>
       <c r="H26" s="1">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="I26" s="1">
-        <v>6.5</v>
+        <v>8.9</v>
       </c>
       <c r="J26" s="1">
-        <v>55.37</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>88</v>
+        <v>55.72</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C27" s="29">
-        <v>2</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="E27" s="18">
-        <v>26</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>544</v>
+      <c r="B27">
+        <v>2024</v>
+      </c>
+      <c r="C27" s="27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E27" s="19">
+        <v>4</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="G27" s="1">
-        <v>37.47</v>
+        <v>34.53</v>
       </c>
       <c r="H27" s="1">
-        <v>10.25</v>
+        <v>8.09</v>
       </c>
       <c r="I27" s="1">
-        <v>7.25</v>
+        <v>6.13</v>
       </c>
       <c r="J27" s="1">
-        <v>54.97</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>88</v>
+        <v>48.75</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C28" s="29">
+      <c r="B28">
+        <v>2024</v>
+      </c>
+      <c r="C28" s="27">
         <v>2</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E28" s="18">
-        <v>27</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>545</v>
+      <c r="E28" s="17">
+        <v>32</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>549</v>
       </c>
       <c r="G28" s="1">
-        <v>36.270000000000003</v>
+        <v>34.130000000000003</v>
       </c>
       <c r="H28" s="1">
-        <v>9.73</v>
+        <v>11.13</v>
       </c>
       <c r="I28" s="1">
-        <v>8.75</v>
+        <v>8.35</v>
       </c>
       <c r="J28" s="1">
-        <v>54.75</v>
+        <v>53.61</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C29" s="29">
+      <c r="B29">
+        <v>2024</v>
+      </c>
+      <c r="C29" s="27">
         <v>2</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E29" s="18">
-        <v>28</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>546</v>
+      <c r="E29" s="15">
+        <v>11</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>529</v>
       </c>
       <c r="G29" s="1">
-        <v>33.200000000000003</v>
+        <v>33.869999999999997</v>
       </c>
       <c r="H29" s="1">
-        <v>9.3800000000000008</v>
+        <v>11.29</v>
       </c>
       <c r="I29" s="1">
-        <v>11.85</v>
+        <v>21.2</v>
       </c>
       <c r="J29" s="1">
-        <v>54.43</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>88</v>
+        <v>66.349999999999994</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C30" s="29">
+      <c r="B30">
+        <v>2024</v>
+      </c>
+      <c r="C30" s="27">
         <v>2</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E30" s="18">
-        <v>29</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>547</v>
+      <c r="E30" s="17">
+        <v>30</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="G30" s="1">
-        <v>33.33</v>
+        <v>33.869999999999997</v>
       </c>
       <c r="H30" s="1">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="I30" s="1">
-        <v>7.95</v>
+        <v>9.75</v>
       </c>
       <c r="J30" s="1">
-        <v>54.28</v>
+        <v>53.87</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C31" s="29">
+      <c r="B31">
+        <v>2024</v>
+      </c>
+      <c r="C31" s="27">
         <v>2</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E31" s="18">
-        <v>30</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>108</v>
+      <c r="E31" s="17">
+        <v>49</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>565</v>
       </c>
       <c r="G31" s="1">
         <v>33.869999999999997</v>
       </c>
       <c r="H31" s="1">
-        <v>10.25</v>
+        <v>11.71</v>
       </c>
       <c r="I31" s="1">
-        <v>9.75</v>
+        <v>3</v>
       </c>
       <c r="J31" s="1">
-        <v>53.87</v>
+        <v>48.58</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C32" s="29">
+      <c r="B32">
+        <v>2024</v>
+      </c>
+      <c r="C32" s="27">
         <v>2</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E32" s="18">
-        <v>31</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>548</v>
+      <c r="E32" s="17">
+        <v>56</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>570</v>
       </c>
       <c r="G32" s="1">
-        <v>31.33</v>
+        <v>33.869999999999997</v>
       </c>
       <c r="H32" s="1">
-        <v>12.63</v>
+        <v>12.13</v>
       </c>
       <c r="I32" s="1">
-        <v>9.8000000000000007</v>
+        <v>1.85</v>
       </c>
       <c r="J32" s="1">
-        <v>53.76</v>
+        <v>47.84</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C33" s="29">
+      <c r="B33">
+        <v>2024</v>
+      </c>
+      <c r="C33" s="27">
         <v>2</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E33" s="18">
-        <v>32</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>549</v>
+      <c r="E33" s="17">
+        <v>42</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>558</v>
       </c>
       <c r="G33" s="1">
-        <v>34.130000000000003</v>
+        <v>33.6</v>
       </c>
       <c r="H33" s="1">
-        <v>11.13</v>
+        <v>12</v>
       </c>
       <c r="I33" s="1">
-        <v>8.35</v>
+        <v>5.25</v>
       </c>
       <c r="J33" s="1">
-        <v>53.61</v>
+        <v>50.85</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C34" s="29">
+      <c r="B34">
+        <v>2024</v>
+      </c>
+      <c r="C34" s="27">
         <v>2</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E34" s="18">
-        <v>33</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>550</v>
+      <c r="E34" s="15">
+        <v>22</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>540</v>
       </c>
       <c r="G34" s="1">
-        <v>31.47</v>
+        <v>33.47</v>
       </c>
       <c r="H34" s="1">
-        <v>11.5</v>
+        <v>10.88</v>
       </c>
       <c r="I34" s="1">
-        <v>10.61</v>
+        <v>12.25</v>
       </c>
       <c r="J34" s="1">
-        <v>53.58</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>88</v>
+        <v>56.59</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C35" s="29">
+      <c r="B35">
+        <v>2024</v>
+      </c>
+      <c r="C35" s="27">
         <v>2</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E35" s="18">
-        <v>34</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>551</v>
+      <c r="E35" s="17">
+        <v>29</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>547</v>
       </c>
       <c r="G35" s="1">
-        <v>31.47</v>
+        <v>33.33</v>
       </c>
       <c r="H35" s="1">
-        <v>11.19</v>
+        <v>13</v>
       </c>
       <c r="I35" s="1">
-        <v>10.6</v>
+        <v>7.95</v>
       </c>
       <c r="J35" s="1">
-        <v>53.25</v>
+        <v>54.28</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C36" s="29">
+      <c r="B36">
+        <v>2024</v>
+      </c>
+      <c r="C36" s="27">
         <v>2</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E36" s="18">
-        <v>35</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>552</v>
+      <c r="E36" s="17">
+        <v>28</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>546</v>
       </c>
       <c r="G36" s="1">
-        <v>27.33</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="H36" s="1">
-        <v>12</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="I36" s="1">
-        <v>13.75</v>
+        <v>11.85</v>
       </c>
       <c r="J36" s="1">
-        <v>53.08</v>
+        <v>54.43</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C37" s="29">
+      <c r="B37">
+        <v>2024</v>
+      </c>
+      <c r="C37" s="27">
         <v>2</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E37" s="18">
-        <v>36</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>553</v>
+      <c r="E37" s="17">
+        <v>69</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="G37" s="1">
-        <v>32.53</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="H37" s="1">
-        <v>12.25</v>
+        <v>8.75</v>
       </c>
       <c r="I37" s="1">
-        <v>7.75</v>
+        <v>1.5</v>
       </c>
       <c r="J37" s="1">
-        <v>52.53</v>
+        <v>43.05</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C38" s="29">
+      <c r="B38">
+        <v>2024</v>
+      </c>
+      <c r="C38" s="27">
         <v>2</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E38" s="18">
-        <v>37</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>554</v>
+      <c r="E38" s="15">
+        <v>7</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>525</v>
       </c>
       <c r="G38" s="1">
-        <v>36.799999999999997</v>
+        <v>32.67</v>
       </c>
       <c r="H38" s="1">
-        <v>11.13</v>
+        <v>12.45</v>
       </c>
       <c r="I38" s="1">
-        <v>4.5999999999999996</v>
+        <v>23.25</v>
       </c>
       <c r="J38" s="1">
-        <v>52.53</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>88</v>
+        <v>68.37</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C39" s="29">
+      <c r="B39">
+        <v>2024</v>
+      </c>
+      <c r="C39" s="27">
         <v>2</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E39" s="18">
-        <v>38</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>57</v>
+      <c r="E39" s="15">
+        <v>16</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>534</v>
       </c>
       <c r="G39" s="1">
-        <v>38.130000000000003</v>
+        <v>32.67</v>
       </c>
       <c r="H39" s="1">
-        <v>9.48</v>
+        <v>11.88</v>
       </c>
       <c r="I39" s="1">
-        <v>4.75</v>
+        <v>15.75</v>
       </c>
       <c r="J39" s="1">
-        <v>52.36</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>88</v>
+        <v>60.29</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C40" s="29">
+      <c r="B40">
+        <v>2024</v>
+      </c>
+      <c r="C40" s="27">
         <v>2</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E40" s="18">
-        <v>39</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>555</v>
+      <c r="E40" s="17">
+        <v>36</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>553</v>
       </c>
       <c r="G40" s="1">
-        <v>32.130000000000003</v>
+        <v>32.53</v>
       </c>
       <c r="H40" s="1">
-        <v>11.88</v>
+        <v>12.25</v>
       </c>
       <c r="I40" s="1">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="J40" s="1">
-        <v>52.01</v>
+        <v>52.53</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C41" s="29">
+      <c r="B41">
+        <v>2024</v>
+      </c>
+      <c r="C41" s="27">
         <v>2</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E41" s="18">
-        <v>40</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>556</v>
+      <c r="E41" s="17">
+        <v>60</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>574</v>
       </c>
       <c r="G41" s="1">
-        <v>30.16</v>
+        <v>32.53</v>
       </c>
       <c r="H41" s="1">
         <v>9.5</v>
       </c>
       <c r="I41" s="1">
-        <v>12.03</v>
+        <v>5.05</v>
       </c>
       <c r="J41" s="1">
-        <v>51.69</v>
+        <v>47.08</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C42" s="29">
+      <c r="B42">
+        <v>2024</v>
+      </c>
+      <c r="C42" s="27">
         <v>2</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E42" s="18">
-        <v>41</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>557</v>
+      <c r="E42" s="17">
+        <v>39</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>555</v>
       </c>
       <c r="G42" s="1">
-        <v>31.6</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="H42" s="1">
-        <v>10.88</v>
+        <v>11.88</v>
       </c>
       <c r="I42" s="1">
-        <v>9.1300000000000008</v>
+        <v>8</v>
       </c>
       <c r="J42" s="1">
-        <v>51.61</v>
+        <v>52.01</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C43" s="29">
-        <v>2</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="E43" s="18">
-        <v>42</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>558</v>
+      <c r="B43">
+        <v>2024</v>
+      </c>
+      <c r="C43" s="27">
+        <v>2</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E43" s="19">
+        <v>2</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>594</v>
       </c>
       <c r="G43" s="1">
-        <v>33.6</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="H43" s="1">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="I43" s="1">
-        <v>5.25</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="J43" s="1">
-        <v>50.85</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>88</v>
+        <v>50.08</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C44" s="29">
+      <c r="B44">
+        <v>2024</v>
+      </c>
+      <c r="C44" s="27">
         <v>2</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E44" s="18">
-        <v>43</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>559</v>
+      <c r="E44" s="17">
+        <v>52</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>568</v>
       </c>
       <c r="G44" s="1">
-        <v>29.87</v>
+        <v>31.73</v>
       </c>
       <c r="H44" s="1">
-        <v>11.63</v>
+        <v>10.63</v>
       </c>
       <c r="I44" s="1">
-        <v>9.18</v>
+        <v>6.05</v>
       </c>
       <c r="J44" s="1">
-        <v>50.67</v>
+        <v>48.41</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C45" s="29">
+      <c r="B45">
+        <v>2024</v>
+      </c>
+      <c r="C45" s="27">
         <v>2</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E45" s="18">
-        <v>44</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>560</v>
+      <c r="E45" s="17">
+        <v>41</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>557</v>
       </c>
       <c r="G45" s="1">
-        <v>28.67</v>
+        <v>31.6</v>
       </c>
       <c r="H45" s="1">
-        <v>11.75</v>
+        <v>10.88</v>
       </c>
       <c r="I45" s="1">
-        <v>10</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="J45" s="1">
-        <v>50.42</v>
+        <v>51.61</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C46" s="29">
+      <c r="B46">
+        <v>2024</v>
+      </c>
+      <c r="C46" s="27">
         <v>2</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E46" s="18">
-        <v>45</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>561</v>
+      <c r="E46" s="15">
+        <v>20</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>538</v>
       </c>
       <c r="G46" s="1">
-        <v>27.47</v>
+        <v>31.47</v>
       </c>
       <c r="H46" s="1">
-        <v>11.88</v>
+        <v>11.41</v>
       </c>
       <c r="I46" s="1">
-        <v>10.15</v>
+        <v>14.58</v>
       </c>
       <c r="J46" s="1">
-        <v>49.49</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>88</v>
+        <v>57.45</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C47" s="29">
+      <c r="B47">
+        <v>2024</v>
+      </c>
+      <c r="C47" s="27">
         <v>2</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E47" s="18">
-        <v>46</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>562</v>
+      <c r="E47" s="17">
+        <v>33</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>550</v>
       </c>
       <c r="G47" s="1">
-        <v>31.2</v>
+        <v>31.47</v>
       </c>
       <c r="H47" s="1">
-        <v>11.88</v>
+        <v>11.5</v>
       </c>
       <c r="I47" s="1">
-        <v>6.25</v>
+        <v>10.61</v>
       </c>
       <c r="J47" s="1">
-        <v>49.33</v>
+        <v>53.58</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C48" s="29">
+      <c r="B48">
+        <v>2024</v>
+      </c>
+      <c r="C48" s="27">
         <v>2</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E48" s="18">
-        <v>47</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>563</v>
+      <c r="E48" s="17">
+        <v>34</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>551</v>
       </c>
       <c r="G48" s="1">
-        <v>27.73</v>
+        <v>31.47</v>
       </c>
       <c r="H48" s="1">
-        <v>11.92</v>
+        <v>11.19</v>
       </c>
       <c r="I48" s="1">
-        <v>9.25</v>
+        <v>10.6</v>
       </c>
       <c r="J48" s="1">
-        <v>48.9</v>
+        <v>53.25</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C49" s="29">
+      <c r="B49">
+        <v>2024</v>
+      </c>
+      <c r="C49" s="27">
         <v>2</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E49" s="18">
-        <v>48</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>564</v>
+      <c r="E49" s="17">
+        <v>31</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>548</v>
       </c>
       <c r="G49" s="1">
-        <v>35.33</v>
+        <v>31.33</v>
       </c>
       <c r="H49" s="1">
-        <v>10.65</v>
+        <v>12.63</v>
       </c>
       <c r="I49" s="1">
-        <v>2.75</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J49" s="1">
-        <v>48.74</v>
+        <v>53.76</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C50" s="29">
+      <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50" s="27">
         <v>2</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E50" s="18">
-        <v>49</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>565</v>
+      <c r="E50" s="17">
+        <v>53</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>569</v>
       </c>
       <c r="G50" s="1">
-        <v>33.869999999999997</v>
+        <v>31.33</v>
       </c>
       <c r="H50" s="1">
-        <v>11.71</v>
+        <v>13.94</v>
       </c>
       <c r="I50" s="1">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J50" s="1">
-        <v>48.58</v>
+        <v>48.02</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C51" s="29">
+      <c r="B51">
+        <v>2024</v>
+      </c>
+      <c r="C51" s="27">
         <v>2</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E51" s="18">
-        <v>50</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>566</v>
+      <c r="E51" s="17">
+        <v>46</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>562</v>
       </c>
       <c r="G51" s="1">
-        <v>28.8</v>
+        <v>31.2</v>
       </c>
       <c r="H51" s="1">
-        <v>10.63</v>
+        <v>11.88</v>
       </c>
       <c r="I51" s="1">
-        <v>9.1300000000000008</v>
+        <v>6.25</v>
       </c>
       <c r="J51" s="1">
-        <v>48.55</v>
+        <v>49.33</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C52" s="29">
+      <c r="B52">
+        <v>2024</v>
+      </c>
+      <c r="C52" s="27">
         <v>2</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E52" s="18">
-        <v>51</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>567</v>
+      <c r="E52" s="15">
+        <v>8</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>526</v>
       </c>
       <c r="G52" s="1">
-        <v>28.53</v>
+        <v>31.07</v>
       </c>
       <c r="H52" s="1">
-        <v>11.63</v>
+        <v>10.25</v>
       </c>
       <c r="I52" s="1">
-        <v>8.25</v>
+        <v>26.65</v>
       </c>
       <c r="J52" s="1">
-        <v>48.41</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>88</v>
+        <v>67.97</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C53" s="29">
+      <c r="B53">
+        <v>2024</v>
+      </c>
+      <c r="C53" s="27">
         <v>2</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E53" s="18">
-        <v>52</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>568</v>
+      <c r="E53" s="17">
+        <v>61</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>575</v>
       </c>
       <c r="G53" s="1">
-        <v>31.73</v>
+        <v>31.07</v>
       </c>
       <c r="H53" s="1">
-        <v>10.63</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="I53" s="1">
-        <v>6.05</v>
+        <v>6.3</v>
       </c>
       <c r="J53" s="1">
-        <v>48.41</v>
+        <v>46.99</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C54" s="29">
+      <c r="B54">
+        <v>2024</v>
+      </c>
+      <c r="C54" s="27">
         <v>2</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E54" s="18">
-        <v>53</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>569</v>
+      <c r="E54" s="17">
+        <v>67</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>581</v>
       </c>
       <c r="G54" s="1">
-        <v>31.33</v>
+        <v>30.93</v>
       </c>
       <c r="H54" s="1">
-        <v>13.94</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="I54" s="1">
-        <v>2.75</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="J54" s="1">
-        <v>48.02</v>
+        <v>43.53</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C55" s="29">
+      <c r="B55">
+        <v>2024</v>
+      </c>
+      <c r="C55" s="27">
         <v>2</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E55" s="18">
-        <v>54</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>58</v>
+      <c r="E55" s="17">
+        <v>59</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>573</v>
       </c>
       <c r="G55" s="1">
-        <v>36</v>
+        <v>30.67</v>
       </c>
       <c r="H55" s="1">
-        <v>9.26</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="I55" s="1">
-        <v>2.75</v>
+        <v>7.25</v>
       </c>
       <c r="J55" s="1">
-        <v>48.01</v>
+        <v>47.29</v>
       </c>
       <c r="K55" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C56" s="29">
+      <c r="B56">
+        <v>2024</v>
+      </c>
+      <c r="C56" s="27">
         <v>2</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E56" s="18">
-        <v>55</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>61</v>
+      <c r="E56" s="17">
+        <v>40</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>556</v>
       </c>
       <c r="G56" s="1">
-        <v>29.07</v>
+        <v>30.16</v>
       </c>
       <c r="H56" s="1">
-        <v>11.06</v>
+        <v>9.5</v>
       </c>
       <c r="I56" s="1">
-        <v>7.88</v>
+        <v>12.03</v>
       </c>
       <c r="J56" s="1">
-        <v>48</v>
+        <v>51.69</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C57" s="29">
+      <c r="B57">
+        <v>2024</v>
+      </c>
+      <c r="C57" s="27">
         <v>2</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E57" s="18">
-        <v>56</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>570</v>
+      <c r="E57" s="20">
+        <v>19</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>537</v>
       </c>
       <c r="G57" s="1">
-        <v>33.869999999999997</v>
+        <v>30</v>
       </c>
       <c r="H57" s="1">
-        <v>12.13</v>
+        <v>13.13</v>
       </c>
       <c r="I57" s="1">
-        <v>1.85</v>
+        <v>14.4</v>
       </c>
       <c r="J57" s="1">
-        <v>47.84</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>88</v>
+        <v>57.53</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C58" s="29">
+      <c r="B58">
+        <v>2024</v>
+      </c>
+      <c r="C58" s="27">
         <v>2</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E58" s="18">
-        <v>57</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>571</v>
+      <c r="E58" s="17">
+        <v>43</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>559</v>
       </c>
       <c r="G58" s="1">
-        <v>26</v>
+        <v>29.87</v>
       </c>
       <c r="H58" s="1">
         <v>11.63</v>
       </c>
       <c r="I58" s="1">
-        <v>10</v>
+        <v>9.18</v>
       </c>
       <c r="J58" s="1">
-        <v>47.63</v>
+        <v>50.67</v>
       </c>
       <c r="K58" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C59" s="29">
-        <v>2</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="E59" s="18">
-        <v>58</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>572</v>
+      <c r="B59">
+        <v>2024</v>
+      </c>
+      <c r="C59" s="27">
+        <v>2</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E59" s="19">
+        <v>5</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>596</v>
       </c>
       <c r="G59" s="1">
-        <v>26.67</v>
+        <v>29.47</v>
       </c>
       <c r="H59" s="1">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="I59" s="1">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="J59" s="1">
-        <v>47.42</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>88</v>
+        <v>47.72</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C60" s="29">
+      <c r="B60">
+        <v>2024</v>
+      </c>
+      <c r="C60" s="27">
         <v>2</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E60" s="18">
-        <v>59</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>573</v>
+      <c r="E60" s="17">
+        <v>68</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="G60" s="1">
-        <v>30.67</v>
+        <v>29.2</v>
       </c>
       <c r="H60" s="1">
-        <v>9.3800000000000008</v>
+        <v>11.44</v>
       </c>
       <c r="I60" s="1">
-        <v>7.25</v>
+        <v>2.5</v>
       </c>
       <c r="J60" s="1">
-        <v>47.29</v>
+        <v>43.14</v>
       </c>
       <c r="K60" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C61" s="29">
+      <c r="B61">
+        <v>2024</v>
+      </c>
+      <c r="C61" s="27">
         <v>2</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E61" s="18">
-        <v>60</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>574</v>
+      <c r="E61" s="17">
+        <v>77</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>586</v>
       </c>
       <c r="G61" s="1">
-        <v>32.53</v>
+        <v>29.2</v>
       </c>
       <c r="H61" s="1">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="I61" s="1">
-        <v>5.05</v>
+        <v>0</v>
       </c>
       <c r="J61" s="1">
-        <v>47.08</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="K61" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C62" s="29">
+      <c r="B62">
+        <v>2024</v>
+      </c>
+      <c r="C62" s="27">
         <v>2</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="17">
+        <v>55</v>
+      </c>
+      <c r="F62" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F62" s="18" t="s">
-        <v>575</v>
-      </c>
       <c r="G62" s="1">
-        <v>31.07</v>
+        <v>29.07</v>
       </c>
       <c r="H62" s="1">
-        <v>9.6300000000000008</v>
+        <v>11.06</v>
       </c>
       <c r="I62" s="1">
-        <v>6.3</v>
+        <v>7.88</v>
       </c>
       <c r="J62" s="1">
-        <v>46.99</v>
+        <v>48</v>
       </c>
       <c r="K62" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C63" s="29">
+      <c r="B63">
+        <v>2024</v>
+      </c>
+      <c r="C63" s="27">
         <v>2</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E63" s="18">
-        <v>62</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>576</v>
+      <c r="E63" s="17">
+        <v>73</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>583</v>
       </c>
       <c r="G63" s="1">
-        <v>25.6</v>
+        <v>29.07</v>
       </c>
       <c r="H63" s="1">
-        <v>12.38</v>
+        <v>10.38</v>
       </c>
       <c r="I63" s="1">
-        <v>8.75</v>
+        <v>3</v>
       </c>
       <c r="J63" s="1">
-        <v>46.73</v>
+        <v>42.44</v>
       </c>
       <c r="K63" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C64" s="29">
+      <c r="B64">
+        <v>2024</v>
+      </c>
+      <c r="C64" s="27">
         <v>2</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E64" s="18">
-        <v>63</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>577</v>
+      <c r="E64" s="15">
+        <v>15</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>533</v>
       </c>
       <c r="G64" s="1">
-        <v>25.73</v>
+        <v>28.93</v>
       </c>
       <c r="H64" s="1">
-        <v>10.130000000000001</v>
+        <v>15.75</v>
       </c>
       <c r="I64" s="1">
-        <v>9.65</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="J64" s="1">
-        <v>45.51</v>
-      </c>
-      <c r="K64" s="10" t="s">
-        <v>88</v>
+        <v>60.83</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C65" s="29">
+      <c r="B65">
+        <v>2024</v>
+      </c>
+      <c r="C65" s="27">
         <v>2</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E65" s="18">
-        <v>64</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>578</v>
+      <c r="E65" s="17">
+        <v>50</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>566</v>
       </c>
       <c r="G65" s="1">
-        <v>24</v>
+        <v>28.8</v>
       </c>
       <c r="H65" s="1">
-        <v>11</v>
+        <v>10.63</v>
       </c>
       <c r="I65" s="1">
-        <v>10.28</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="J65" s="1">
-        <v>45.28</v>
+        <v>48.55</v>
       </c>
       <c r="K65" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C66" s="29">
+      <c r="B66">
+        <v>2024</v>
+      </c>
+      <c r="C66" s="27">
         <v>2</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E66" s="18">
-        <v>65</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>579</v>
+      <c r="E66" s="17">
+        <v>44</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>560</v>
       </c>
       <c r="G66" s="1">
-        <v>27.33</v>
+        <v>28.67</v>
       </c>
       <c r="H66" s="1">
-        <v>9.75</v>
+        <v>11.75</v>
       </c>
       <c r="I66" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J66" s="1">
-        <v>45.08</v>
+        <v>50.42</v>
       </c>
       <c r="K66" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C67" s="29">
+      <c r="B67">
+        <v>2024</v>
+      </c>
+      <c r="C67" s="27">
         <v>2</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E67" s="18">
-        <v>66</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>580</v>
+      <c r="E67" s="17">
+        <v>51</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>567</v>
       </c>
       <c r="G67" s="1">
-        <v>26.27</v>
+        <v>28.53</v>
       </c>
       <c r="H67" s="1">
-        <v>10.25</v>
+        <v>11.63</v>
       </c>
       <c r="I67" s="1">
-        <v>8.23</v>
+        <v>8.25</v>
       </c>
       <c r="J67" s="1">
-        <v>44.74</v>
+        <v>48.41</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C68" s="29">
-        <v>2</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="E68" s="18">
-        <v>67</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>581</v>
+      <c r="B68">
+        <v>2024</v>
+      </c>
+      <c r="C68" s="27">
+        <v>2</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E68" s="17">
+        <v>9</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>599</v>
       </c>
       <c r="G68" s="1">
-        <v>30.93</v>
+        <v>28.53</v>
       </c>
       <c r="H68" s="1">
-        <v>8.1300000000000008</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="I68" s="1">
-        <v>4.4800000000000004</v>
+        <v>3.25</v>
       </c>
       <c r="J68" s="1">
-        <v>43.53</v>
+        <v>41.41</v>
       </c>
       <c r="K68" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C69" s="29">
+      <c r="B69">
+        <v>2024</v>
+      </c>
+      <c r="C69" s="27">
         <v>2</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E69" s="18">
-        <v>68</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>128</v>
+      <c r="E69" s="17">
+        <v>72</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="G69" s="1">
-        <v>29.2</v>
+        <v>28.27</v>
       </c>
       <c r="H69" s="1">
-        <v>11.44</v>
+        <v>12.75</v>
       </c>
       <c r="I69" s="1">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="J69" s="1">
-        <v>43.14</v>
+        <v>42.77</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C70" s="29">
-        <v>2</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="E70" s="18">
-        <v>69</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>277</v>
+      <c r="B70">
+        <v>2024</v>
+      </c>
+      <c r="C70" s="27">
+        <v>2</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E70" s="19">
+        <v>3</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>595</v>
       </c>
       <c r="G70" s="1">
-        <v>32.799999999999997</v>
+        <v>28.27</v>
       </c>
       <c r="H70" s="1">
-        <v>8.75</v>
+        <v>13.65</v>
       </c>
       <c r="I70" s="1">
-        <v>1.5</v>
+        <v>7.4</v>
       </c>
       <c r="J70" s="1">
-        <v>43.05</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>88</v>
+        <v>49.32</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C71" s="29">
+      <c r="B71">
+        <v>2024</v>
+      </c>
+      <c r="C71" s="27">
         <v>2</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E71" s="18">
-        <v>70</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>582</v>
+      <c r="E71" s="17">
+        <v>75</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="G71" s="1">
-        <v>24</v>
+        <v>28.13</v>
       </c>
       <c r="H71" s="1">
-        <v>10.119999999999999</v>
+        <v>13.25</v>
       </c>
       <c r="I71" s="1">
-        <v>8.8800000000000008</v>
+        <v>0.6</v>
       </c>
       <c r="J71" s="1">
-        <v>42.99</v>
+        <v>41.98</v>
       </c>
       <c r="K71" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C72" s="29">
+      <c r="B72">
+        <v>2024</v>
+      </c>
+      <c r="C72" s="27">
         <v>2</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E72" s="18">
-        <v>71</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>63</v>
+      <c r="E72" s="17">
+        <v>81</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>590</v>
       </c>
       <c r="G72" s="1">
-        <v>27.2</v>
+        <v>28.13</v>
       </c>
       <c r="H72" s="1">
-        <v>9.2899999999999991</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="I72" s="1">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>42.99</v>
+        <v>37.26</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C73" s="29">
-        <v>2</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="E73" s="18">
-        <v>72</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>79</v>
+      <c r="B73">
+        <v>2024</v>
+      </c>
+      <c r="C73" s="27">
+        <v>2</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E73" s="17">
+        <v>7</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="G73" s="1">
-        <v>28.27</v>
+        <v>28.13</v>
       </c>
       <c r="H73" s="1">
-        <v>12.75</v>
+        <v>11.5</v>
       </c>
       <c r="I73" s="1">
-        <v>1.75</v>
+        <v>5.73</v>
       </c>
       <c r="J73" s="1">
-        <v>42.77</v>
+        <v>45.36</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C74" s="29">
+      <c r="B74">
+        <v>2024</v>
+      </c>
+      <c r="C74" s="27">
         <v>2</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E74" s="18">
-        <v>73</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>583</v>
+      <c r="E74" s="17">
+        <v>47</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>563</v>
       </c>
       <c r="G74" s="1">
-        <v>29.07</v>
+        <v>27.73</v>
       </c>
       <c r="H74" s="1">
-        <v>10.38</v>
+        <v>11.92</v>
       </c>
       <c r="I74" s="1">
-        <v>3</v>
+        <v>9.25</v>
       </c>
       <c r="J74" s="1">
-        <v>42.44</v>
+        <v>48.9</v>
       </c>
       <c r="K74" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B75" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C75" s="29">
+      <c r="B75">
+        <v>2024</v>
+      </c>
+      <c r="C75" s="27">
         <v>2</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E75" s="18">
-        <v>74</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>584</v>
+      <c r="E75" s="17">
+        <v>45</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>561</v>
       </c>
       <c r="G75" s="1">
-        <v>26.4</v>
+        <v>27.47</v>
       </c>
       <c r="H75" s="1">
         <v>11.88</v>
       </c>
       <c r="I75" s="1">
-        <v>3.88</v>
+        <v>10.15</v>
       </c>
       <c r="J75" s="1">
-        <v>42.15</v>
+        <v>49.49</v>
       </c>
       <c r="K75" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C76" s="29">
+      <c r="B76">
+        <v>2024</v>
+      </c>
+      <c r="C76" s="27">
         <v>2</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E76" s="18">
-        <v>75</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>81</v>
+      <c r="E76" s="17">
+        <v>35</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>552</v>
       </c>
       <c r="G76" s="1">
-        <v>28.13</v>
+        <v>27.33</v>
       </c>
       <c r="H76" s="1">
-        <v>13.25</v>
+        <v>12</v>
       </c>
       <c r="I76" s="1">
-        <v>0.6</v>
+        <v>13.75</v>
       </c>
       <c r="J76" s="1">
-        <v>41.98</v>
+        <v>53.08</v>
       </c>
       <c r="K76" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C77" s="29">
+      <c r="B77">
+        <v>2024</v>
+      </c>
+      <c r="C77" s="27">
         <v>2</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E77" s="18">
-        <v>76</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>585</v>
+      <c r="E77" s="17">
+        <v>65</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>579</v>
       </c>
       <c r="G77" s="1">
-        <v>27.07</v>
+        <v>27.33</v>
       </c>
       <c r="H77" s="1">
         <v>9.75</v>
       </c>
       <c r="I77" s="1">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="J77" s="1">
-        <v>40.57</v>
+        <v>45.08</v>
       </c>
       <c r="K77" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C78" s="29">
+      <c r="B78">
+        <v>2024</v>
+      </c>
+      <c r="C78" s="27">
         <v>2</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E78" s="18">
-        <v>77</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>586</v>
+      <c r="E78" s="17">
+        <v>71</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="G78" s="1">
-        <v>29.2</v>
+        <v>27.2</v>
       </c>
       <c r="H78" s="1">
-        <v>11.25</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="I78" s="1">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J78" s="1">
-        <v>40.450000000000003</v>
+        <v>42.99</v>
       </c>
       <c r="K78" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C79" s="29">
+      <c r="B79">
+        <v>2024</v>
+      </c>
+      <c r="C79" s="27">
         <v>2</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E79" s="18">
-        <v>78</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>587</v>
+      <c r="E79" s="17">
+        <v>76</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>585</v>
       </c>
       <c r="G79" s="1">
-        <v>26.27</v>
+        <v>27.07</v>
       </c>
       <c r="H79" s="1">
-        <v>12.06</v>
+        <v>9.75</v>
       </c>
       <c r="I79" s="1">
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="J79" s="1">
-        <v>39.33</v>
+        <v>40.57</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C80" s="29">
-        <v>2</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="E80" s="18">
-        <v>79</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>588</v>
+      <c r="B80">
+        <v>2024</v>
+      </c>
+      <c r="C80" s="27">
+        <v>2</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E80" s="17">
+        <v>8</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>598</v>
       </c>
       <c r="G80" s="1">
-        <v>24.4</v>
+        <v>27.07</v>
       </c>
       <c r="H80" s="1">
-        <v>10</v>
+        <v>11.27</v>
       </c>
       <c r="I80" s="1">
-        <v>4.8</v>
+        <v>4.78</v>
       </c>
       <c r="J80" s="1">
-        <v>39.200000000000003</v>
+        <v>43.11</v>
       </c>
       <c r="K80" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C81" s="29">
+      <c r="B81">
+        <v>2024</v>
+      </c>
+      <c r="C81" s="27">
         <v>2</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E81" s="18">
-        <v>80</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>589</v>
+      <c r="E81" s="17">
+        <v>58</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>572</v>
       </c>
       <c r="G81" s="1">
-        <v>25.84</v>
+        <v>26.67</v>
       </c>
       <c r="H81" s="1">
-        <v>11.63</v>
+        <v>11.25</v>
       </c>
       <c r="I81" s="1">
-        <v>0.25</v>
+        <v>9.5</v>
       </c>
       <c r="J81" s="1">
-        <v>37.72</v>
+        <v>47.42</v>
       </c>
       <c r="K81" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C82" s="29">
+      <c r="B82">
+        <v>2024</v>
+      </c>
+      <c r="C82" s="27">
         <v>2</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E82" s="18">
-        <v>81</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>590</v>
+      <c r="E82" s="17">
+        <v>74</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>584</v>
       </c>
       <c r="G82" s="1">
-        <v>28.13</v>
+        <v>26.4</v>
       </c>
       <c r="H82" s="1">
-        <v>9.1300000000000008</v>
+        <v>11.88</v>
       </c>
       <c r="I82" s="1">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="J82" s="1">
-        <v>37.26</v>
+        <v>42.15</v>
       </c>
       <c r="K82" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C83" s="29">
+      <c r="B83">
+        <v>2024</v>
+      </c>
+      <c r="C83" s="27">
         <v>2</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E83" s="18">
-        <v>82</v>
-      </c>
-      <c r="F83" s="18" t="s">
-        <v>591</v>
+      <c r="E83" s="17">
+        <v>66</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>580</v>
       </c>
       <c r="G83" s="1">
-        <v>24.27</v>
+        <v>26.27</v>
       </c>
       <c r="H83" s="1">
-        <v>9.3800000000000008</v>
+        <v>10.25</v>
       </c>
       <c r="I83" s="1">
-        <v>0</v>
+        <v>8.23</v>
       </c>
       <c r="J83" s="1">
-        <v>33.64</v>
+        <v>44.74</v>
       </c>
       <c r="K83" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="31">
-        <v>2024</v>
-      </c>
-      <c r="C84" s="32">
-        <v>2</v>
-      </c>
-      <c r="D84" s="15" t="s">
+      <c r="B84" s="29">
+        <v>2024</v>
+      </c>
+      <c r="C84" s="30">
+        <v>2</v>
+      </c>
+      <c r="D84" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E84" s="18">
+        <v>78</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="G84" s="12">
+        <v>26.27</v>
+      </c>
+      <c r="H84" s="12">
+        <v>12.06</v>
+      </c>
+      <c r="I84" s="12">
+        <v>1</v>
+      </c>
+      <c r="J84" s="12">
+        <v>39.33</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="24">
+        <v>2024</v>
+      </c>
+      <c r="C85" s="25">
+        <v>2</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E85" s="17">
+        <v>57</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="G85" s="1">
+        <v>26</v>
+      </c>
+      <c r="H85" s="1">
+        <v>11.63</v>
+      </c>
+      <c r="I85" s="1">
+        <v>10</v>
+      </c>
+      <c r="J85" s="1">
+        <v>47.63</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86">
+        <v>2024</v>
+      </c>
+      <c r="C86" s="27">
+        <v>2</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E86" s="17">
+        <v>80</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="G86" s="1">
+        <v>25.84</v>
+      </c>
+      <c r="H86" s="1">
+        <v>11.63</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J86" s="1">
+        <v>37.72</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>2024</v>
+      </c>
+      <c r="C87" s="27">
+        <v>2</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E87" s="17">
+        <v>63</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="G87" s="1">
+        <v>25.73</v>
+      </c>
+      <c r="H87" s="1">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="I87" s="1">
+        <v>9.65</v>
+      </c>
+      <c r="J87" s="1">
+        <v>45.51</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88">
+        <v>2024</v>
+      </c>
+      <c r="C88" s="27">
+        <v>2</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E88" s="17">
+        <v>62</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="G88" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="H88" s="1">
+        <v>12.38</v>
+      </c>
+      <c r="I88" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="J88" s="1">
+        <v>46.73</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="31">
+        <v>2024</v>
+      </c>
+      <c r="C89" s="27">
+        <v>2</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E89" s="32">
         <v>83</v>
       </c>
-      <c r="F84" s="19" t="s">
+      <c r="F89" s="32" t="s">
         <v>592</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G89" s="34">
         <v>24.67</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H89" s="34">
         <v>8.8800000000000008</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I89" s="34">
         <v>0</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J89" s="34">
         <v>33.54</v>
       </c>
-      <c r="K84" s="14" t="s">
+      <c r="K89" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="24" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="25">
-        <v>2024</v>
-      </c>
-      <c r="C85" s="26">
-        <v>2</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="E85" s="20">
-        <v>1</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>593</v>
-      </c>
-      <c r="G85" s="1">
-        <v>37.07</v>
-      </c>
-      <c r="H85" s="1">
-        <v>11.83</v>
-      </c>
-      <c r="I85" s="1">
-        <v>10.75</v>
-      </c>
-      <c r="J85" s="1">
-        <v>59.65</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="27" t="s">
+      <c r="B90">
+        <v>2024</v>
+      </c>
+      <c r="C90" s="27">
+        <v>2</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E90" s="17">
+        <v>79</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="G90" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="H90" s="1">
+        <v>10</v>
+      </c>
+      <c r="I90" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J90" s="1">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C86" s="29">
-        <v>2</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="E86" s="20">
-        <v>2</v>
-      </c>
-      <c r="F86" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G86" s="1">
-        <v>32.130000000000003</v>
-      </c>
-      <c r="H86" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="I86" s="1">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="J86" s="1">
-        <v>50.08</v>
-      </c>
-      <c r="K86" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C87" s="29">
-        <v>2</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="E87" s="20">
-        <v>3</v>
-      </c>
-      <c r="F87" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="G87" s="1">
-        <v>28.27</v>
-      </c>
-      <c r="H87" s="1">
-        <v>13.65</v>
-      </c>
-      <c r="I87" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="J87" s="1">
-        <v>49.32</v>
-      </c>
-      <c r="K87" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C88" s="29">
-        <v>2</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="E88" s="20">
-        <v>4</v>
-      </c>
-      <c r="F88" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G88" s="1">
-        <v>34.53</v>
-      </c>
-      <c r="H88" s="1">
-        <v>8.09</v>
-      </c>
-      <c r="I88" s="1">
-        <v>6.13</v>
-      </c>
-      <c r="J88" s="1">
-        <v>48.75</v>
-      </c>
-      <c r="K88" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C89" s="29">
-        <v>2</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="E89" s="20">
-        <v>5</v>
-      </c>
-      <c r="F89" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="G89" s="1">
-        <v>29.47</v>
-      </c>
-      <c r="H89" s="1">
-        <v>10</v>
-      </c>
-      <c r="I89" s="1">
-        <v>8.25</v>
-      </c>
-      <c r="J89" s="1">
-        <v>47.72</v>
-      </c>
-      <c r="K89" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C90" s="29">
-        <v>2</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="E90" s="20">
-        <v>6</v>
-      </c>
-      <c r="F90" s="20" t="s">
-        <v>597</v>
-      </c>
-      <c r="G90" s="1">
-        <v>38</v>
-      </c>
-      <c r="H90" s="1">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="I90" s="1">
-        <v>0</v>
-      </c>
-      <c r="J90" s="1">
-        <v>47.53</v>
-      </c>
-      <c r="K90" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C91" s="29">
+      <c r="B91" s="31">
+        <v>2024</v>
+      </c>
+      <c r="C91" s="27">
         <v>2</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="E91" s="18">
-        <v>7</v>
-      </c>
-      <c r="F91" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G91" s="1">
-        <v>28.13</v>
-      </c>
-      <c r="H91" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="I91" s="1">
-        <v>5.73</v>
-      </c>
-      <c r="J91" s="1">
-        <v>45.36</v>
+      <c r="E91" s="32">
+        <v>10</v>
+      </c>
+      <c r="F91" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G91" s="34">
+        <v>24.4</v>
+      </c>
+      <c r="H91" s="34">
+        <v>10.63</v>
+      </c>
+      <c r="I91" s="34">
+        <v>6</v>
+      </c>
+      <c r="J91" s="34">
+        <v>41.03</v>
       </c>
       <c r="K91" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C92" s="29">
-        <v>2</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="E92" s="18">
-        <v>8</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>598</v>
+      <c r="B92">
+        <v>2024</v>
+      </c>
+      <c r="C92" s="27">
+        <v>2</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E92" s="17">
+        <v>82</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>591</v>
       </c>
       <c r="G92" s="1">
-        <v>27.07</v>
+        <v>24.27</v>
       </c>
       <c r="H92" s="1">
-        <v>11.27</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="I92" s="1">
-        <v>4.78</v>
+        <v>0</v>
       </c>
       <c r="J92" s="1">
-        <v>43.11</v>
+        <v>33.64</v>
       </c>
       <c r="K92" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="28">
-        <v>2024</v>
-      </c>
-      <c r="C93" s="29">
-        <v>2</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="E93" s="18">
-        <v>9</v>
-      </c>
-      <c r="F93" s="18" t="s">
-        <v>599</v>
-      </c>
-      <c r="G93" s="1">
-        <v>28.53</v>
-      </c>
-      <c r="H93" s="1">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="I93" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="J93" s="1">
-        <v>41.41</v>
+      <c r="B93" s="31">
+        <v>2024</v>
+      </c>
+      <c r="C93" s="27">
+        <v>2</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E93" s="32">
+        <v>64</v>
+      </c>
+      <c r="F93" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="G93" s="34">
+        <v>24</v>
+      </c>
+      <c r="H93" s="34">
+        <v>11</v>
+      </c>
+      <c r="I93" s="34">
+        <v>10.28</v>
+      </c>
+      <c r="J93" s="34">
+        <v>45.28</v>
       </c>
       <c r="K93" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="31">
-        <v>2024</v>
-      </c>
-      <c r="C94" s="32">
-        <v>2</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="E94" s="19">
-        <v>10</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G94" s="13">
-        <v>24.4</v>
-      </c>
-      <c r="H94" s="13">
-        <v>10.63</v>
-      </c>
-      <c r="I94" s="13">
-        <v>6</v>
-      </c>
-      <c r="J94" s="13">
-        <v>41.03</v>
-      </c>
-      <c r="K94" s="14" t="s">
+      <c r="B94" s="29">
+        <v>2024</v>
+      </c>
+      <c r="C94" s="30">
+        <v>2</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="E94" s="18">
+        <v>70</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="G94" s="12">
+        <v>24</v>
+      </c>
+      <c r="H94" s="12">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="I94" s="12">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="J94" s="12">
+        <v>42.99</v>
+      </c>
+      <c r="K94" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{DB2747A6-6F29-4420-B83B-596E88E9CB5E}"/>
+  <autoFilter ref="A1:K1" xr:uid="{DB2747A6-6F29-4420-B83B-596E88E9CB5E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K94">
+      <sortCondition descending="1" ref="G1"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G94">
     <cfRule type="colorScale" priority="4">
       <colorScale>
